--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A8813-0EF6-43D4-B24E-75DF289184F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504736DC-6788-494A-988C-E20A6085CA26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="4395" windowWidth="20445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,142 @@
   </si>
   <si>
     <t>EnglishMapName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPos1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftRot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-28,0,-68.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPos2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftRot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPos3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftRot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPos4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftRot4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPos5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftRot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-18,0,-68.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-6.9,0,-68.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-5.8,0,-68.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-17.4,0,-68.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPos1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightRot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPos2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightRot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPos3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightRot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPos4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightRot4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPos5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightRot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-28,0,81.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-18,0,81.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-6.9,0,81.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-5.8,0,81.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-17.4,0,81.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_左阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_右阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,18 +523,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,14 +552,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -426,8 +571,68 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -439,8 +644,68 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -452,8 +717,68 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -465,8 +790,68 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -478,22 +863,82 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>

--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504736DC-6788-494A-988C-E20A6085CA26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68170AA3-49BB-4E7C-B864-172BB5772D4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>s_右阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,180,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,31 +828,31 @@
         <v>37</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -897,31 +901,31 @@
         <v>37</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68170AA3-49BB-4E7C-B864-172BB5772D4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C09C4-D750-4543-82D6-B6E212288CEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="3945" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChineseMapName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +191,22 @@
   </si>
   <si>
     <t>(0,180,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东六B222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东六B111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EastSixB222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EastSixB111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,64 +584,64 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -643,70 +651,70 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -722,64 +730,64 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -789,70 +797,70 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -862,70 +870,70 @@
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="U7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21708"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C09C4-D750-4543-82D6-B6E212288CEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6702EC0-FEA0-4688-A859-217BE9B7F2C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="3945" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-28,0,-68.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(0,0,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-28,0,81.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(-18,0,81.8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +199,14 @@
   </si>
   <si>
     <t>EastSixB111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-28,30,-68.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-28,30,81.8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,64 +584,64 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -663,58 +663,58 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -797,70 +797,70 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -870,70 +870,70 @@
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="U7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
